--- a/xlsx/Spiegel Online_intext.xlsx
+++ b/xlsx/Spiegel Online_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%8F%A1%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>明鏡出版社</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Spiegel Online</t>
+    <t>明镜出版社</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Spiegel Online</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>新聞雜誌</t>
+    <t>新闻杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>總編輯</t>
+    <t>总编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%A0%A1</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
